--- a/Objectifs_SaidiA.xlsx
+++ b/Objectifs_SaidiA.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="5837"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
@@ -416,12 +416,15 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,15 +447,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2016</v>
       </c>
       <c r="B2" s="4">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="C2" s="4">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="D2" s="5">
         <v>0.02</v>
@@ -463,19 +466,17 @@
       <c r="F2" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G2" s="4">
-        <v>28928.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2017</v>
       </c>
       <c r="B3" s="4">
-        <v>160000</v>
+        <v>210000</v>
       </c>
       <c r="C3" s="4">
-        <v>550000</v>
+        <v>450000</v>
       </c>
       <c r="D3" s="5">
         <v>0.02</v>
@@ -486,19 +487,17 @@
       <c r="F3" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="4">
-        <v>30249.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2018</v>
       </c>
       <c r="B4" s="4">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="C4" s="4">
-        <v>610000</v>
+        <v>530000</v>
       </c>
       <c r="D4" s="5">
         <v>0.02</v>
@@ -509,44 +508,74 @@
       <c r="F4" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G4" s="4">
-        <v>44791.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2019</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="4">
+        <v>230000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>560000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2020</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="4">
+        <v>250000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>580000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>48359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2021</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="4">
+        <v>270000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>600000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
@@ -557,7 +586,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2023</v>
       </c>
@@ -568,7 +597,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2024</v>
       </c>
@@ -579,7 +608,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2025</v>
       </c>
